--- a/linear_programming/Modeling/Pineapple Production/PineappleProduction.xlsx
+++ b/linear_programming/Modeling/Pineapple Production/PineappleProduction.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/680 Important/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/bmc/Desktop/680 Important/models/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
+    <workbookView xWindow="100" yWindow="520" windowWidth="25600" windowHeight="14480" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Pineapple Production" sheetId="1" r:id="rId1"/>
@@ -25,8 +25,8 @@
     <definedName name="solver_lhs3" localSheetId="0" hidden="1">'Pineapple Production'!$C$23</definedName>
     <definedName name="solver_lhs4" localSheetId="0" hidden="1">'Pineapple Production'!$C$25</definedName>
     <definedName name="solver_lhs5" localSheetId="0" hidden="1">'Pineapple Production'!$C$26</definedName>
-    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Pineapple Production'!$C$25</definedName>
-    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Pineapple Production'!$C$26</definedName>
+    <definedName name="solver_lhs6" localSheetId="0" hidden="1">'Pineapple Production'!$C$27:$C$30</definedName>
+    <definedName name="solver_lhs7" localSheetId="0" hidden="1">'Pineapple Production'!$C$3:$F$5</definedName>
     <definedName name="solver_lin" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_mip" localSheetId="0" hidden="1">2147483647</definedName>
     <definedName name="solver_mni" localSheetId="0" hidden="1">30</definedName>
@@ -34,7 +34,7 @@
     <definedName name="solver_msl" localSheetId="0" hidden="1">2</definedName>
     <definedName name="solver_neg" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_nod" localSheetId="0" hidden="1">2147483647</definedName>
-    <definedName name="solver_num" localSheetId="0" hidden="1">5</definedName>
+    <definedName name="solver_num" localSheetId="0" hidden="1">7</definedName>
     <definedName name="solver_opt" localSheetId="0" hidden="1">'Pineapple Production'!$C$16</definedName>
     <definedName name="solver_pre" localSheetId="0" hidden="1">0.000001</definedName>
     <definedName name="solver_rbv" localSheetId="0" hidden="1">1</definedName>
@@ -43,15 +43,15 @@
     <definedName name="solver_rel3" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel4" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rel5" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel6" localSheetId="0" hidden="1">1</definedName>
-    <definedName name="solver_rel7" localSheetId="0" hidden="1">1</definedName>
+    <definedName name="solver_rel6" localSheetId="0" hidden="1">3</definedName>
+    <definedName name="solver_rel7" localSheetId="0" hidden="1">3</definedName>
     <definedName name="solver_rhs1" localSheetId="0" hidden="1">'Pineapple Production'!$E$19:$E$21</definedName>
     <definedName name="solver_rhs2" localSheetId="0" hidden="1">'Pineapple Production'!$H$22</definedName>
     <definedName name="solver_rhs3" localSheetId="0" hidden="1">'Pineapple Production'!$E$23</definedName>
     <definedName name="solver_rhs4" localSheetId="0" hidden="1">'Pineapple Production'!$E$25</definedName>
     <definedName name="solver_rhs5" localSheetId="0" hidden="1">'Pineapple Production'!$E$26</definedName>
-    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Pineapple Production'!$E$25</definedName>
-    <definedName name="solver_rhs7" localSheetId="0" hidden="1">'Pineapple Production'!$E$26</definedName>
+    <definedName name="solver_rhs6" localSheetId="0" hidden="1">'Pineapple Production'!$E$27:$E$30</definedName>
+    <definedName name="solver_rhs7" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_rlx" localSheetId="0" hidden="1">1</definedName>
     <definedName name="solver_rsd" localSheetId="0" hidden="1">0</definedName>
     <definedName name="solver_scl" localSheetId="0" hidden="1">2</definedName>
@@ -83,7 +83,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="33">
   <si>
     <t>D.V</t>
   </si>
@@ -158,6 +158,30 @@
   </si>
   <si>
     <t>&gt;=</t>
+  </si>
+  <si>
+    <t>AmtPineappleConstant</t>
+  </si>
+  <si>
+    <t>AcreCostConstant</t>
+  </si>
+  <si>
+    <t>maxJuice</t>
+  </si>
+  <si>
+    <t>maxWhole</t>
+  </si>
+  <si>
+    <t>minCrush</t>
+  </si>
+  <si>
+    <t>minSlice</t>
+  </si>
+  <si>
+    <t>minJuice</t>
+  </si>
+  <si>
+    <t>minWhole</t>
   </si>
 </sst>
 </file>
@@ -197,7 +221,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -246,8 +270,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -270,15 +300,28 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="5">
+  <cellStyleXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -316,21 +359,31 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="2" fontId="0" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
-  <cellStyles count="5">
+  <cellStyles count="9">
     <cellStyle name="Followed Hyperlink" xfId="2" builtinId="9" hidden="1"/>
     <cellStyle name="Followed Hyperlink" xfId="4" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="6" builtinId="9" hidden="1"/>
+    <cellStyle name="Followed Hyperlink" xfId="8" builtinId="9" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="1" builtinId="8" hidden="1"/>
     <cellStyle name="Hyperlink" xfId="3" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="5" builtinId="8" hidden="1"/>
+    <cellStyle name="Hyperlink" xfId="7" builtinId="8" hidden="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -687,10 +740,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:I26"/>
+  <dimension ref="A2:K30"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+    <sheetView tabSelected="1" zoomScale="113" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -703,7 +756,7 @@
     <col min="10" max="16384" width="10.83203125" style="4"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B2" s="1" t="s">
         <v>0</v>
       </c>
@@ -728,22 +781,26 @@
       <c r="I2" s="3" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J2" s="16" t="s">
+        <v>25</v>
+      </c>
+      <c r="K2" s="17"/>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B3" s="1" t="s">
         <v>1</v>
       </c>
       <c r="C3" s="5">
-        <v>4999.9999999999991</v>
+        <v>7500</v>
       </c>
       <c r="D3" s="5">
-        <v>0</v>
+        <v>10000</v>
       </c>
       <c r="E3" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F3" s="5">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G3" s="6">
         <f>SUM(C3:F3)</f>
@@ -755,8 +812,12 @@
       <c r="I3" s="7">
         <v>40000</v>
       </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J3" s="16">
+        <v>1000</v>
+      </c>
+      <c r="K3" s="17"/>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B4" s="1" t="s">
         <v>2</v>
       </c>
@@ -782,26 +843,30 @@
       <c r="I4" s="7">
         <v>30000</v>
       </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J4" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="K4" s="17"/>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B5" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C5" s="5">
-        <v>14999.999999999998</v>
+        <v>22500</v>
       </c>
       <c r="D5" s="5">
         <v>0</v>
       </c>
       <c r="E5" s="5">
-        <v>0</v>
+        <v>5000</v>
       </c>
       <c r="F5" s="5">
-        <v>35000</v>
+        <v>17500</v>
       </c>
       <c r="G5" s="6">
         <f t="shared" si="0"/>
-        <v>50000</v>
+        <v>45000</v>
       </c>
       <c r="H5" s="7">
         <v>7</v>
@@ -809,8 +874,12 @@
       <c r="I5" s="7">
         <v>50000</v>
       </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="J5" s="16">
+        <v>210</v>
+      </c>
+      <c r="K5" s="17"/>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B6" s="3" t="s">
         <v>10</v>
       </c>
@@ -829,7 +898,7 @@
       <c r="H6" s="8"/>
       <c r="I6" s="8"/>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="7" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B7" s="3" t="s">
         <v>11</v>
       </c>
@@ -846,7 +915,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B8" s="3" t="s">
         <v>12</v>
       </c>
@@ -863,7 +932,7 @@
         <v>1.25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B9" s="3" t="s">
         <v>13</v>
       </c>
@@ -880,7 +949,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B10" s="3" t="s">
         <v>14</v>
       </c>
@@ -890,68 +959,72 @@
       <c r="D10" s="7">
         <v>20000000</v>
       </c>
-      <c r="E10" s="13">
+      <c r="E10" s="14">
         <v>50000000</v>
       </c>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.2">
+      <c r="F10" s="14"/>
+    </row>
+    <row r="11" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H11" s="8"/>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.2">
       <c r="H12" s="8"/>
       <c r="I12" s="8"/>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.2">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B14" s="9" t="s">
         <v>16</v>
       </c>
       <c r="C14" s="4">
-        <f>C6*C8*SUM(C3:C5)</f>
-        <v>37500</v>
+        <f>$J$3*C6*C8*SUM(C3:C5)</f>
+        <v>45000000</v>
       </c>
       <c r="D14" s="4">
-        <f>D6*D8*SUM(D3:D5)</f>
-        <v>0</v>
+        <f t="shared" ref="D14:F14" si="1">$J$3*D6*D8*SUM(D3:D5)</f>
+        <v>17500000</v>
       </c>
       <c r="E14" s="4">
-        <f>E6*E8*SUM(E3:E5)</f>
-        <v>0</v>
+        <f t="shared" si="1"/>
+        <v>12500000</v>
       </c>
       <c r="F14" s="4">
-        <f>F6*F8*SUM(F3:F5)</f>
-        <v>87500</v>
-      </c>
-    </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.2">
+        <f t="shared" si="1"/>
+        <v>43750000</v>
+      </c>
+    </row>
+    <row r="15" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B15" s="10" t="s">
         <v>17</v>
       </c>
       <c r="C15" s="4">
-        <f>C6*C7*SUM(C3:C5)</f>
-        <v>5000</v>
+        <f>$J$3*C6*C7*SUM(C3:C5)</f>
+        <v>6000000</v>
       </c>
       <c r="D15" s="4">
-        <f>D6*D7*SUM(D3:D5)</f>
-        <v>0</v>
+        <f t="shared" ref="D15:E15" si="2">$J$3*D6*D7*SUM(D3:D5)</f>
+        <v>500000</v>
       </c>
       <c r="E15" s="4">
-        <f>E6*E7*SUM(E3:E5)</f>
-        <v>0</v>
+        <f t="shared" si="2"/>
+        <v>3000000</v>
       </c>
       <c r="F15" s="4">
-        <f>F6*F7*SUM(F3:F5)</f>
-        <v>17500</v>
-      </c>
-    </row>
-    <row r="16" spans="2:9" x14ac:dyDescent="0.2">
+        <f>$J$3*F6*F7*SUM(F3:F5)</f>
+        <v>8750000</v>
+      </c>
+      <c r="G15" s="4">
+        <f>J5*SUM(C3:F5)</f>
+        <v>24150000</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.2">
       <c r="B16" s="11" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="15">
-        <f>SUM(C14:F14)-SUM(C15:F15)</f>
-        <v>102500</v>
+      <c r="C16" s="13">
+        <f>SUM(C14:F14)-SUM(C15:G15)</f>
+        <v>76350000</v>
       </c>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
@@ -977,27 +1050,27 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C20" s="8">
-        <f t="shared" ref="C20:C21" si="1">SUM(C4:F4)</f>
+        <f t="shared" ref="C20:C21" si="3">SUM(C4:F4)</f>
         <v>30000</v>
       </c>
       <c r="D20" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E20" s="8">
-        <f t="shared" ref="E20:E21" si="2">I4</f>
+        <f t="shared" ref="E20:E21" si="4">I4</f>
         <v>30000</v>
       </c>
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="C21" s="8">
-        <f t="shared" si="1"/>
-        <v>50000</v>
+        <f t="shared" si="3"/>
+        <v>45000</v>
       </c>
       <c r="D21" s="4" t="s">
         <v>20</v>
       </c>
       <c r="E21" s="8">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
         <v>50000</v>
       </c>
     </row>
@@ -1006,19 +1079,19 @@
         <v>21</v>
       </c>
       <c r="C22" s="8">
-        <f>SUMPRODUCT(C3:C5,$H$3:$H$5) - (SUM(C3:C5)*C9)</f>
+        <f>SUMPRODUCT(C3:C5,$H$3:$H$5) - C9*SUM(C3:C5)</f>
         <v>0</v>
       </c>
       <c r="D22" s="8">
-        <f t="shared" ref="D22:F22" si="3">SUMPRODUCT(D3:D5,$H$3:$H$5) - (SUM(D3:D5)*D9)</f>
+        <f t="shared" ref="D22:F22" si="5">SUMPRODUCT(D3:D5,$H$3:$H$5) - D9*SUM(D3:D5)</f>
         <v>0</v>
       </c>
       <c r="E22" s="8">
-        <f t="shared" si="3"/>
+        <f>SUMPRODUCT(E3:E5,$H$3:$H$5) - E9*SUM(E3:E5)</f>
         <v>0</v>
       </c>
       <c r="F22" s="8">
-        <f t="shared" si="3"/>
+        <f t="shared" si="5"/>
         <v>0</v>
       </c>
       <c r="G22" s="4" t="s">
@@ -1029,15 +1102,15 @@
       </c>
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A23" s="14" t="s">
+      <c r="A23" s="15" t="s">
         <v>23</v>
       </c>
       <c r="B23" s="8" t="s">
         <v>22</v>
       </c>
       <c r="C23" s="8">
-        <f>SUM(E3:F5)</f>
-        <v>70000</v>
+        <f>J3*SUM(E3:F5)</f>
+        <v>45000000</v>
       </c>
       <c r="D23" s="8" t="s">
         <v>20</v>
@@ -1049,7 +1122,7 @@
       <c r="F23" s="8"/>
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A24" s="14"/>
+      <c r="A24" s="15"/>
       <c r="B24" s="8"/>
       <c r="C24" s="8"/>
       <c r="D24" s="8"/>
@@ -1060,10 +1133,12 @@
       <c r="A25" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B25" s="8"/>
+      <c r="B25" s="8" t="s">
+        <v>27</v>
+      </c>
       <c r="C25" s="8">
-        <f>SUM(C3:C5)</f>
-        <v>50000</v>
+        <f>C6*J3*SUM(C3:C5)</f>
+        <v>30000000</v>
       </c>
       <c r="D25" s="8" t="s">
         <v>20</v>
@@ -1077,9 +1152,12 @@
       <c r="A26" s="4" t="s">
         <v>5</v>
       </c>
+      <c r="B26" s="4" t="s">
+        <v>28</v>
+      </c>
       <c r="C26" s="8">
-        <f>SUM(D3:D5)</f>
-        <v>0</v>
+        <f>J3*SUM(D3:D5)</f>
+        <v>10000000</v>
       </c>
       <c r="D26" s="4" t="s">
         <v>20</v>
@@ -1089,10 +1167,74 @@
         <v>20000000</v>
       </c>
     </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B27" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C27" s="4">
+        <f>C6*J3*SUM(C3:C5)</f>
+        <v>30000000</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E27" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B28" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C28" s="4">
+        <f>J3*SUM(D3:D5)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D28" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E28" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B29" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C29" s="4">
+        <f>J3*SUM(E3:E5)</f>
+        <v>10000000</v>
+      </c>
+      <c r="D29" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E29" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="B30" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C30" s="4">
+        <f>J3*SUM(F3:F5)</f>
+        <v>35000000</v>
+      </c>
+      <c r="D30" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30" s="4">
+        <v>10000000</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="2">
+  <mergeCells count="6">
     <mergeCell ref="E10:F10"/>
     <mergeCell ref="A23:A24"/>
+    <mergeCell ref="J2:K2"/>
+    <mergeCell ref="J3:K3"/>
+    <mergeCell ref="J4:K4"/>
+    <mergeCell ref="J5:K5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
